--- a/lowe/edd/data/MODOCHWS.xlsx
+++ b/lowe/edd/data/MODOCHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,14 +1268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH38"/>
+  <dimension ref="A1:JI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1285,12 +1285,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,14 +1300,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2135,11 +2135,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2942,8 +2945,11 @@
       <c r="JH9" s="11">
         <v>3450</v>
       </c>
+      <c r="JI9" s="11">
+        <v>3390</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3746,8 +3752,11 @@
       <c r="JH10" s="11">
         <v>3250</v>
       </c>
+      <c r="JI10" s="11">
+        <v>3220</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4550,8 +4559,11 @@
       <c r="JH11" s="11">
         <v>200</v>
       </c>
+      <c r="JI11" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5352,10 +5364,13 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6158,8 +6173,11 @@
       <c r="JH13" s="11">
         <v>3070</v>
       </c>
+      <c r="JI13" s="11">
+        <v>3010</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6962,8 +6980,11 @@
       <c r="JH14" s="11">
         <v>490</v>
       </c>
+      <c r="JI14" s="11">
+        <v>440</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7766,8 +7787,11 @@
       <c r="JH15" s="11">
         <v>2580</v>
       </c>
+      <c r="JI15" s="11">
+        <v>2570</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8570,8 +8594,11 @@
       <c r="JH16" s="11">
         <v>1310</v>
       </c>
+      <c r="JI16" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9374,8 +9401,11 @@
       <c r="JH17" s="11">
         <v>160</v>
       </c>
+      <c r="JI17" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10178,8 +10208,11 @@
       <c r="JH18" s="11">
         <v>140</v>
       </c>
+      <c r="JI18" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -10982,8 +11015,11 @@
       <c r="JH19" s="11">
         <v>2420</v>
       </c>
+      <c r="JI19" s="11">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11786,8 +11822,11 @@
       <c r="JH20" s="11">
         <v>1150</v>
       </c>
+      <c r="JI20" s="11">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12590,8 +12629,11 @@
       <c r="JH21" s="11">
         <v>370</v>
       </c>
+      <c r="JI21" s="11">
+        <v>360</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13394,8 +13436,11 @@
       <c r="JH22" s="11">
         <v>300</v>
       </c>
+      <c r="JI22" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14198,8 +14243,11 @@
       <c r="JH23" s="11">
         <v>250</v>
       </c>
+      <c r="JI23" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15002,8 +15050,11 @@
       <c r="JH24" s="11">
         <v>230</v>
       </c>
+      <c r="JI24" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -15806,8 +15857,11 @@
       <c r="JH25" s="11">
         <v>1270</v>
       </c>
+      <c r="JI25" s="11">
+        <v>1270</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16610,8 +16664,11 @@
       <c r="JH26" s="11">
         <v>220</v>
       </c>
+      <c r="JI26" s="11">
+        <v>220</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17414,8 +17471,11 @@
       <c r="JH27" s="11">
         <v>1040</v>
       </c>
+      <c r="JI27" s="11">
+        <v>1050</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18218,8 +18278,11 @@
       <c r="JH28" s="11">
         <v>70</v>
       </c>
+      <c r="JI28" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -19022,8 +19085,11 @@
       <c r="JH29" s="11">
         <v>980</v>
       </c>
+      <c r="JI29" s="11">
+        <v>980</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>75</v>
       </c>
@@ -19036,7 +19102,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>15</v>
       </c>

--- a/lowe/edd/data/MODOCHWS.xlsx
+++ b/lowe/edd/data/MODOCHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI38"/>
+  <dimension ref="A1:JJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,12 +1285,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,14 +1300,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2138,11 +2138,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2948,8 +2951,11 @@
       <c r="JI9" s="11">
         <v>3390</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3755,8 +3761,11 @@
       <c r="JI10" s="11">
         <v>3220</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>3290</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4562,8 +4571,11 @@
       <c r="JI11" s="11">
         <v>170</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5367,10 +5379,13 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6176,8 +6191,11 @@
       <c r="JI13" s="11">
         <v>3010</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6983,8 +7001,11 @@
       <c r="JI14" s="11">
         <v>440</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7790,8 +7811,11 @@
       <c r="JI15" s="11">
         <v>2570</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>2620</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8597,8 +8621,11 @@
       <c r="JI16" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>1340</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9404,8 +9431,11 @@
       <c r="JI17" s="11">
         <v>140</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10211,8 +10241,11 @@
       <c r="JI18" s="11">
         <v>130</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11018,8 +11051,11 @@
       <c r="JI19" s="11">
         <v>2420</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>2450</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11825,8 +11861,11 @@
       <c r="JI20" s="11">
         <v>1150</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>1170</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12632,8 +12671,11 @@
       <c r="JI21" s="11">
         <v>360</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>360</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13439,8 +13481,11 @@
       <c r="JI22" s="11">
         <v>310</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14246,8 +14291,11 @@
       <c r="JI23" s="11">
         <v>240</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15053,8 +15101,11 @@
       <c r="JI24" s="11">
         <v>240</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -15860,8 +15911,11 @@
       <c r="JI25" s="11">
         <v>1270</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>1280</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16667,8 +16721,11 @@
       <c r="JI26" s="11">
         <v>220</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17474,8 +17531,11 @@
       <c r="JI27" s="11">
         <v>1050</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>1070</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18281,8 +18341,11 @@
       <c r="JI28" s="11">
         <v>70</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -19088,8 +19151,11 @@
       <c r="JI29" s="11">
         <v>980</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>75</v>
       </c>
@@ -19102,7 +19168,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>15</v>
       </c>

--- a/lowe/edd/data/MODOCHWS.xlsx
+++ b/lowe/edd/data/MODOCHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ38"/>
+  <dimension ref="A1:JL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,12 +1285,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,14 +1300,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2141,11 +2141,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2952,10 +2958,16 @@
         <v>3390</v>
       </c>
       <c r="JJ9" s="11">
-        <v>3450</v>
+        <v>3460</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>3330</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>3260</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3764,8 +3776,14 @@
       <c r="JJ10" s="11">
         <v>3290</v>
       </c>
+      <c r="JK10" s="11">
+        <v>3170</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>3090</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4574,8 +4592,14 @@
       <c r="JJ11" s="11">
         <v>160</v>
       </c>
+      <c r="JK11" s="11">
+        <v>160</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5382,10 +5406,16 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6194,8 +6224,14 @@
       <c r="JJ13" s="11">
         <v>3100</v>
       </c>
+      <c r="JK13" s="11">
+        <v>2930</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>2840</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7004,8 +7040,14 @@
       <c r="JJ14" s="11">
         <v>480</v>
       </c>
+      <c r="JK14" s="11">
+        <v>350</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7814,8 +7856,14 @@
       <c r="JJ15" s="11">
         <v>2620</v>
       </c>
+      <c r="JK15" s="11">
+        <v>2580</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>2530</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8624,8 +8672,14 @@
       <c r="JJ16" s="11">
         <v>1340</v>
       </c>
+      <c r="JK16" s="11">
+        <v>1320</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1270</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9434,8 +9488,14 @@
       <c r="JJ17" s="11">
         <v>170</v>
       </c>
+      <c r="JK17" s="11">
+        <v>140</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10244,8 +10304,14 @@
       <c r="JJ18" s="11">
         <v>160</v>
       </c>
+      <c r="JK18" s="11">
+        <v>130</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11054,8 +11120,14 @@
       <c r="JJ19" s="11">
         <v>2450</v>
       </c>
+      <c r="JK19" s="11">
+        <v>2440</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>2410</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11864,8 +11936,14 @@
       <c r="JJ20" s="11">
         <v>1170</v>
       </c>
+      <c r="JK20" s="11">
+        <v>1180</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12674,8 +12752,14 @@
       <c r="JJ21" s="11">
         <v>360</v>
       </c>
+      <c r="JK21" s="11">
+        <v>350</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13484,8 +13568,14 @@
       <c r="JJ22" s="11">
         <v>320</v>
       </c>
+      <c r="JK22" s="11">
+        <v>320</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14294,8 +14384,14 @@
       <c r="JJ23" s="11">
         <v>240</v>
       </c>
+      <c r="JK23" s="11">
+        <v>220</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15104,8 +15200,14 @@
       <c r="JJ24" s="11">
         <v>260</v>
       </c>
+      <c r="JK24" s="11">
+        <v>290</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -15914,8 +16016,14 @@
       <c r="JJ25" s="11">
         <v>1280</v>
       </c>
+      <c r="JK25" s="11">
+        <v>1270</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1260</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16724,8 +16832,14 @@
       <c r="JJ26" s="11">
         <v>210</v>
       </c>
+      <c r="JK26" s="11">
+        <v>190</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17534,8 +17648,14 @@
       <c r="JJ27" s="11">
         <v>1070</v>
       </c>
+      <c r="JK27" s="11">
+        <v>1070</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>1090</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18344,8 +18464,14 @@
       <c r="JJ28" s="11">
         <v>70</v>
       </c>
+      <c r="JK28" s="11">
+        <v>70</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -19154,8 +19280,14 @@
       <c r="JJ29" s="11">
         <v>1000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>1010</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>75</v>
       </c>
@@ -19168,7 +19300,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>15</v>
       </c>
